--- a/推主记录.xlsx
+++ b/推主记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\Desktop\txt\其他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14EA29C-3534-4216-A34B-E51B50F9F3B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A5B32-28F5-4978-89E2-29DA70838C62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBF45B9-C44F-4405-BF1A-316900460950}"/>
   </bookViews>
@@ -30,95 +30,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+  <si>
+    <t>Romantic_312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyodong__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackBelt_922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.2截止】金曜汉 BLACKBELT 一代反光手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shine_on_Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【先入金7.29截止】黄允圣 Shine On U 1st Cheering Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holicSeok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.4截止】金宇硕 HolicSeok 1st Cheering Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongpyo_doll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.10截止】孙东杓 15cm娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.4截止】金敏圭 Romanticism 1st Cheering Kit 反光手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>991207_21g</t>
+  </si>
+  <si>
+    <t>【定金7.24截止】李翰洁 FINALGAN 反光手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【先入金7.27截止】金曜汉 Cheering反光手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【先入金7.30截止】金曜汉 手幅收纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEY_YOHAN_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.17截止】金曜汉 babyyohan 20cm娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BABY_yohan_doll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推主ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金7.17截止】琴东贤 Guk peu饭制手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ama03514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001_berry_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金7.29截止】姜敏熙 @2001_berry_1006 反光手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninevelvet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.3截止】李翰洁 ninevelvet反光手幅（二贩）</t>
+  </si>
+  <si>
+    <t>【定金8.5截止】姜敏熙 only for mini 反光手幅（二贩）</t>
+  </si>
+  <si>
+    <t>What_A_Mini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.17截止】李翰洁 🐰RABBIT GYUL🐰20cm娃</t>
+  </si>
+  <si>
+    <t>rabbitgyul_doll</t>
+  </si>
   <si>
     <t>【定金8.10截止】孙东杓 20cm娃娃</t>
-  </si>
-  <si>
-    <t>Romantic_312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pyodong__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackBelt_922</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【定金8.2截止】金曜汉 BLACKBELT 一代反光手幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shine_on_Yun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【先入金7.29截止】黄允圣 Shine On U 1st Cheering Kit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>holicSeok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【定金8.4截止】金宇硕 HolicSeok 1st Cheering Kit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dongpyo_doll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【定金8.10截止】孙东杓 15cm娃娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【定金8.4截止】金敏圭 Romanticism 1st Cheering Kit 反光手幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>991207_21g</t>
-  </si>
-  <si>
-    <t>【定金7.24截止】李翰洁 FINALGAN 反光手幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【先入金7.27截止】金曜汉 Cheering反光手幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【先入金7.30截止】金曜汉 手幅收纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEY_YOHAN_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【定金8.17截止】金曜汉 babyyohan 20cm娃娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BABY_yohan_doll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推主ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【定金7.17截止】琴东贤 Guk peu饭制手幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_ama03514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【先入金8.8截止】MILKY 宇硕🍼 &amp; MILKY 曜汉🍼 20cm娃</t>
+  </si>
+  <si>
+    <t>【定金8.2截止】金敏圭 Summer Kit for MinKyu</t>
+  </si>
+  <si>
+    <t>InthemomentM</t>
+  </si>
+  <si>
+    <t>【定金7.30截止】南道贤 CHEESE GAN 反光手幅</t>
+  </si>
+  <si>
+    <t>【先入金7.27截止】李津宇 Sky Rabbit🐰 反光手幅</t>
+  </si>
+  <si>
+    <t>JINWOODAY_0913</t>
+  </si>
+  <si>
+    <t>【定金8.2截止】韩胜宇 ❤ watercolor 2nd cheering slogan ❤</t>
+  </si>
+  <si>
+    <t>watercolor_sw</t>
+  </si>
+  <si>
+    <t>【先入金7.26截止】金曜汉 beautiful memory</t>
+  </si>
+  <si>
+    <t>kyh990922</t>
+  </si>
+  <si>
+    <t>Milky_ProX101</t>
+  </si>
+  <si>
+    <t>Dooh1110</t>
+  </si>
+  <si>
+    <t>上架时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,18 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF657786"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF657786"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -163,8 +220,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF657786"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF657786"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,24 +305,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,112 +646,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244FE8DA-76E7-46F4-A72A-6FD62E885B2E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.6">
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="6">
+        <v>7.22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
+    <row r="16" spans="1:3" ht="15.6">
+      <c r="A16" s="6">
+        <v>7.24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.6">
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.6">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.6">
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.6">
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.6">
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.6">
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.6">
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.6">
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/推主记录.xlsx
+++ b/推主记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A5B32-28F5-4978-89E2-29DA70838C62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C4E6B-08FB-4667-A85A-68B0A42F7EF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBF45B9-C44F-4405-BF1A-316900460950}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Romantic_312</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,14 +181,59 @@
     <t>kyh990922</t>
   </si>
   <si>
+    <t>Dooh1110</t>
+  </si>
+  <si>
+    <t>上架时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.16截止】金宇硕 饭制透扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x101king</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.8截止】金宇硕 车俊昊 饭制证件照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x101_0709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金7.12截止】孙东杓 饭制魔术手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KuSsE__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONFIRE020909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金7.8截止】孙东杓 YOUTH 1st CHEERING  反光手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Milky_ProX101</t>
-  </si>
-  <si>
-    <t>Dooh1110</t>
-  </si>
-  <si>
-    <t>上架时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金8.1截止】姜敏熙MINIMAN CHEERING反光手幅</t>
+  </si>
+  <si>
+    <t>minimanminiman</t>
+  </si>
+  <si>
+    <t>【定金7.28截止】李镇赫 💙CHEERING SLOGAN💙</t>
+  </si>
+  <si>
+    <t>cosmiclove68</t>
   </si>
 </sst>
 </file>
@@ -646,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244FE8DA-76E7-46F4-A72A-6FD62E885B2E}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -661,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -687,164 +732,215 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
-      <c r="A4" s="6">
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6">
+      <c r="A8" s="6">
         <v>7.22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
-      <c r="B5" s="3" t="s">
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6">
-      <c r="A9" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6">
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6">
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6">
+      <c r="A13" s="6">
+        <v>7.23</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6">
       <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6">
+      <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6">
-      <c r="A16" s="6">
+    <row r="20" spans="1:3" ht="15.6">
+      <c r="A20" s="6">
         <v>7.24</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.6">
-      <c r="B17" s="3" t="s">
+    <row r="21" spans="1:3" ht="15.6">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.6">
-      <c r="B18" s="3" t="s">
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.6">
-      <c r="B19" s="3" t="s">
+    <row r="23" spans="1:3" ht="15.6">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6">
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.6">
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.6">
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.6">
-      <c r="B22" s="3" t="s">
+    <row r="26" spans="1:3" ht="15.6">
+      <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.6">
-      <c r="B23" s="3" t="s">
+    <row r="27" spans="1:3" ht="15.6">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.6">
-      <c r="B24" s="3" t="s">
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6">
+      <c r="A30" s="6">
+        <v>7.26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6">
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/推主记录.xlsx
+++ b/推主记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C4E6B-08FB-4667-A85A-68B0A42F7EF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C15846-A383-4565-8318-C130FFC4E6BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBF45B9-C44F-4405-BF1A-316900460950}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Romantic_312</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KuSsE__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ONFIRE020909</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +226,55 @@
     <t>minimanminiman</t>
   </si>
   <si>
+    <t>cosmiclove68</t>
+  </si>
+  <si>
+    <t>KuDoNG__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>【定金7.28截止】李镇赫 💙CHEERING SLOGAN💙</t>
-  </si>
-  <si>
-    <t>cosmiclove68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.16/6.29截止】具正模饭制贴纸包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chel9jm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金/紫色6.10截止】金曜汉饭制证件照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh_js1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101_BYUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金7.14截止】金宇硕 饭绘手机贴纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuuudolee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金随时截止】金宇硕 饭制金属徽章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.23截止】金宇硕 饭绘贴纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woobboseok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -691,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244FE8DA-76E7-46F4-A72A-6FD62E885B2E}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -749,10 +790,10 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
@@ -760,187 +801,231 @@
         <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6">
-      <c r="A8" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.6">
+      <c r="A14" s="6">
         <v>7.22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6">
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6">
-      <c r="A13" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6">
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6">
       <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6">
       <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6">
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6">
+      <c r="A19" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6">
-      <c r="A20" s="6">
-        <v>7.24</v>
-      </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6">
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6">
       <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6">
       <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6">
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6">
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6">
+      <c r="A26" s="6">
+        <v>7.24</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6">
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6">
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6">
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6">
-      <c r="A30" s="6">
-        <v>7.26</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6">
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6">
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6">
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6">
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6">
+      <c r="A36" s="6">
+        <v>7.26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6">
+      <c r="B37" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/推主记录.xlsx
+++ b/推主记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C15846-A383-4565-8318-C130FFC4E6BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547370D-AF15-4F52-A236-A58BD2267B0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBF45B9-C44F-4405-BF1A-316900460950}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Romantic_312</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>holicSeok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【定金8.4截止】金宇硕 HolicSeok 1st Cheering Kit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +270,34 @@
   </si>
   <si>
     <t>woobboseok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金7.3截止】金宇硕 琴东贤 扇子/透扇/ins 透卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jc5Zn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holickws1027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.21截止】具正模🍑饭制透扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindgooods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>971027dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.19截止】李美談 饭制反光手幅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244FE8DA-76E7-46F4-A72A-6FD62E885B2E}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -747,26 +771,26 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6">
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6">
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -774,258 +798,282 @@
     </row>
     <row r="4" spans="1:3" ht="15.6">
       <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.6">
-      <c r="A14" s="6">
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.6">
+      <c r="A17" s="6">
         <v>7.22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6">
-      <c r="B15" s="3" t="s">
+    <row r="18" spans="1:3" ht="15.6">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6">
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
+    <row r="19" spans="1:3" ht="15.6">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6">
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6">
-      <c r="A19" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6">
       <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="A22" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6">
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6">
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6">
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6">
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6">
-      <c r="A26" s="6">
-        <v>7.24</v>
-      </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6">
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6">
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6">
+      <c r="A29" s="6">
+        <v>7.24</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6">
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6">
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6">
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6">
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6">
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="15.6">
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="36" spans="1:3" ht="15.6">
-      <c r="A36" s="6">
-        <v>7.26</v>
-      </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6">
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6">
+      <c r="A39" s="6">
+        <v>7.26</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6">
+      <c r="B40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/推主记录.xlsx
+++ b/推主记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547370D-AF15-4F52-A236-A58BD2267B0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E42A79-AD1C-4448-85B4-41C27E38AEDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBF45B9-C44F-4405-BF1A-316900460950}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Romantic_312</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,30 @@
   </si>
   <si>
     <t>【定金6.19截止】李美談 饭制反光手幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.27截止】金宇硕 金敏圭 20cm娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowers_doll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金6.13截止】孙东杓 饭制证件照1.0 二贩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dongpyo_onepick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gopyo012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【定金7.6截止】孙东杓 饭制证件照2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244FE8DA-76E7-46F4-A72A-6FD62E885B2E}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -893,186 +917,210 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.6">
-      <c r="A17" s="6">
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.6">
+      <c r="A20" s="6">
         <v>7.22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6">
-      <c r="B18" s="3" t="s">
+    <row r="21" spans="1:3" ht="15.6">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6">
-      <c r="B19" s="3" t="s">
+    <row r="22" spans="1:3" ht="15.6">
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6">
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6">
-      <c r="A22" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6">
       <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6">
+      <c r="A25" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6">
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6">
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6">
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6">
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6">
-      <c r="A29" s="6">
-        <v>7.24</v>
-      </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6">
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6">
-      <c r="B31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6">
+      <c r="A32" s="6">
+        <v>7.24</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6">
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6">
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6">
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6">
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6">
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6">
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6">
-      <c r="A39" s="6">
-        <v>7.26</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6">
       <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6">
+      <c r="A42" s="6">
+        <v>7.26</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6">
+      <c r="B43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>52</v>
       </c>
     </row>

--- a/推主记录.xlsx
+++ b/推主记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E42A79-AD1C-4448-85B4-41C27E38AEDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EC39EF-4865-4323-9ECE-3647B927AA04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3EBF45B9-C44F-4405-BF1A-316900460950}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
